--- a/XiaomiEuRomChecker/core/hyperos_inital_list.xlsx
+++ b/XiaomiEuRomChecker/core/hyperos_inital_list.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\PycharmProjects\XiaomiEuRomChecker\XiaomiEuRomChecker\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\PycharmProjects\XiaomiEuRomChecker\XiaomiEuRomChecker\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7A2E8-86BD-414B-87BF-03A62BC7B444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2D8A6D-C578-4CA8-8EA5-5D8DE2AC7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74CBE821-2FE9-41F0-990E-2B05DFB28BE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74CBE821-2FE9-41F0-990E-2B05DFB28BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="257">
   <si>
     <t>code_name</t>
   </si>
@@ -351,13 +355,469 @@
   </si>
   <si>
     <t>redmi-k70</t>
+  </si>
+  <si>
+    <t>alioth</t>
+  </si>
+  <si>
+    <t>POCO F3</t>
+  </si>
+  <si>
+    <t>HMK40_POCOF3</t>
+  </si>
+  <si>
+    <t>poco-f3</t>
+  </si>
+  <si>
+    <t>Redmi K40</t>
+  </si>
+  <si>
+    <t>redmi-k40</t>
+  </si>
+  <si>
+    <t>aliothin</t>
+  </si>
+  <si>
+    <t>Mi 11X (India)</t>
+  </si>
+  <si>
+    <t>mi-11x-india</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>Xiaomi 14 Ultra</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>xiaomi-14-ultra</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Mi 10 Ultra</t>
+  </si>
+  <si>
+    <t>MI10Ultra</t>
+  </si>
+  <si>
+    <t>mi-10-ultra</t>
+  </si>
+  <si>
+    <t>cmi</t>
+  </si>
+  <si>
+    <t>Mi 10 Pro</t>
+  </si>
+  <si>
+    <t>MI10Pro</t>
+  </si>
+  <si>
+    <t>mi-10-pro</t>
+  </si>
+  <si>
+    <t>garnet</t>
+  </si>
+  <si>
+    <t>GARNET</t>
+  </si>
+  <si>
+    <t>Redmi Note 13 Pro 5G</t>
+  </si>
+  <si>
+    <t>redmi-note-13-pro-5g</t>
+  </si>
+  <si>
+    <t>garnetp</t>
+  </si>
+  <si>
+    <t>POCO X6 5G</t>
+  </si>
+  <si>
+    <t>poco-x6-5g</t>
+  </si>
+  <si>
+    <t>haydn</t>
+  </si>
+  <si>
+    <t>Redmi K40 Pro</t>
+  </si>
+  <si>
+    <t>HMK40Pro_MI11i</t>
+  </si>
+  <si>
+    <t>redmi-k40-pro</t>
+  </si>
+  <si>
+    <t>haydnpro</t>
+  </si>
+  <si>
+    <t>Mi 11i</t>
+  </si>
+  <si>
+    <t>mi-11i</t>
+  </si>
+  <si>
+    <t>Redmi K40 Pro+</t>
+  </si>
+  <si>
+    <t>redmi-k40-pro-plus</t>
+  </si>
+  <si>
+    <t>haydnin</t>
+  </si>
+  <si>
+    <t>Mi 11X Pro (India)</t>
+  </si>
+  <si>
+    <t>mi-11x-pro-india</t>
+  </si>
+  <si>
+    <t>lisa</t>
+  </si>
+  <si>
+    <t>Mi 11 LE</t>
+  </si>
+  <si>
+    <t>MI11LE_XM11Lite5GNE</t>
+  </si>
+  <si>
+    <t>mi-11-le</t>
+  </si>
+  <si>
+    <t>Xiaomi 11 Lite 5G NE</t>
+  </si>
+  <si>
+    <t>xiaomi-11-lite-5g-ne</t>
+  </si>
+  <si>
+    <t>marble(in)</t>
+  </si>
+  <si>
+    <t>Redmi Note 12 Turbo</t>
+  </si>
+  <si>
+    <t>MARBLE</t>
+  </si>
+  <si>
+    <t>redmi-note-12-turbo</t>
+  </si>
+  <si>
+    <t>POCO F5</t>
+  </si>
+  <si>
+    <t>poco-f5</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>Mi 11 Pro</t>
+  </si>
+  <si>
+    <t>MI11Pro_MI11Ultra</t>
+  </si>
+  <si>
+    <t>mi-11-pro</t>
+  </si>
+  <si>
+    <t>mona</t>
+  </si>
+  <si>
+    <t>Xiaomi Civi</t>
+  </si>
+  <si>
+    <t>XMCivi</t>
+  </si>
+  <si>
+    <t>xiaomi-civi</t>
+  </si>
+  <si>
+    <t>moonstone_p</t>
+  </si>
+  <si>
+    <t>POCO X5 5G</t>
+  </si>
+  <si>
+    <t>MOONSTONE</t>
+  </si>
+  <si>
+    <t>poco-x5-5g</t>
+  </si>
+  <si>
+    <t>munch</t>
+  </si>
+  <si>
+    <t>Redmi K40S</t>
+  </si>
+  <si>
+    <t>MUNCH</t>
+  </si>
+  <si>
+    <t>redmi-k40s</t>
+  </si>
+  <si>
+    <t>POCO F4</t>
+  </si>
+  <si>
+    <t>poco-f4</t>
+  </si>
+  <si>
+    <t>odin</t>
+  </si>
+  <si>
+    <t>Xiaomi MIX 4</t>
+  </si>
+  <si>
+    <t>MIX4</t>
+  </si>
+  <si>
+    <t>xiaomi-mix-4</t>
+  </si>
+  <si>
+    <t>peridot</t>
+  </si>
+  <si>
+    <t>Redmi Turbo 3</t>
+  </si>
+  <si>
+    <t>PERIDOT</t>
+  </si>
+  <si>
+    <t>redmi-turbo-3</t>
+  </si>
+  <si>
+    <t>POCO F6</t>
+  </si>
+  <si>
+    <t>poco-f6</t>
+  </si>
+  <si>
+    <t>peux</t>
+  </si>
+  <si>
+    <t>Redmi Note 11 Pro+ 5G (India)</t>
+  </si>
+  <si>
+    <t>VEUXG</t>
+  </si>
+  <si>
+    <t>redmi-note-11-pro-5g-india</t>
+  </si>
+  <si>
+    <t>peux_p</t>
+  </si>
+  <si>
+    <t>POCO X4 Pro 5G (India 64MP)</t>
+  </si>
+  <si>
+    <t>poco-x4-pro-5g-india-64mp</t>
+  </si>
+  <si>
+    <t>psyche</t>
+  </si>
+  <si>
+    <t>Xiaomi 12X</t>
+  </si>
+  <si>
+    <t>XM12X</t>
+  </si>
+  <si>
+    <t>xiaomi-12x</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>SAPPHIREN</t>
+  </si>
+  <si>
+    <t>sapphire</t>
+  </si>
+  <si>
+    <t>sapphiren</t>
+  </si>
+  <si>
+    <t>Redmi Note 13 (Global 4G)</t>
+  </si>
+  <si>
+    <t>Redmi Note 13 (Global 4G NFC)</t>
+  </si>
+  <si>
+    <t>redmi-note-13-global-4g</t>
+  </si>
+  <si>
+    <t>redmi-note-13-global-4g-nfc</t>
+  </si>
+  <si>
+    <t>spes</t>
+  </si>
+  <si>
+    <t>Redmi Note 11 (Global 4G)</t>
+  </si>
+  <si>
+    <t>HMNote11</t>
+  </si>
+  <si>
+    <t>redmi-note-11-global-4g</t>
+  </si>
+  <si>
+    <t>spesn</t>
+  </si>
+  <si>
+    <t>Redmi Note 11 (Global 4G NFC)</t>
+  </si>
+  <si>
+    <t>redmi-note-11-global-4g-nfc</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Mi 11 Ultra</t>
+  </si>
+  <si>
+    <t>mi-11-ultra</t>
+  </si>
+  <si>
+    <t>sunstone</t>
+  </si>
+  <si>
+    <t>Redmi Note 12 5G</t>
+  </si>
+  <si>
+    <t>SUNSTONE</t>
+  </si>
+  <si>
+    <t>redmi-note-12-5g</t>
+  </si>
+  <si>
+    <t>sweet_k6a</t>
+  </si>
+  <si>
+    <t>Redmi Note 12 Pro (Global 4G)</t>
+  </si>
+  <si>
+    <t>SWEETK6A</t>
+  </si>
+  <si>
+    <t>redmi-note-12-pro-global-4g</t>
+  </si>
+  <si>
+    <t>taoyao</t>
+  </si>
+  <si>
+    <t>Xiaomi 12 Lite</t>
+  </si>
+  <si>
+    <t>TAOYAO</t>
+  </si>
+  <si>
+    <t>xiaomi-12-lite</t>
+  </si>
+  <si>
+    <t>thyme</t>
+  </si>
+  <si>
+    <t>Mi 10S</t>
+  </si>
+  <si>
+    <t>MI10S</t>
+  </si>
+  <si>
+    <t>mi-10s</t>
+  </si>
+  <si>
+    <t>umi</t>
+  </si>
+  <si>
+    <t>Mi 10</t>
+  </si>
+  <si>
+    <t>MI10</t>
+  </si>
+  <si>
+    <t>mi-10</t>
+  </si>
+  <si>
+    <t>venus</t>
+  </si>
+  <si>
+    <t>Mi 11</t>
+  </si>
+  <si>
+    <t>MI11</t>
+  </si>
+  <si>
+    <t>mi-11</t>
+  </si>
+  <si>
+    <t>POCO F6 Pro</t>
+  </si>
+  <si>
+    <t>poco-f6-pro</t>
+  </si>
+  <si>
+    <t>veux</t>
+  </si>
+  <si>
+    <t>Redmi Note 11E Pro</t>
+  </si>
+  <si>
+    <t>VEUX</t>
+  </si>
+  <si>
+    <t>redmi-note-11e-pro</t>
+  </si>
+  <si>
+    <t>Redmi Note 11 Pro 5G (Global)</t>
+  </si>
+  <si>
+    <t>redmi-note-11-pro-5g-global</t>
+  </si>
+  <si>
+    <t>veux_p</t>
+  </si>
+  <si>
+    <t>POCO X4 Pro 5G (Global 108MP)</t>
+  </si>
+  <si>
+    <t>poco-x4-pro-5g-global-108mp</t>
+  </si>
+  <si>
+    <t>vili</t>
+  </si>
+  <si>
+    <t>Xiaomi 11T Pro</t>
+  </si>
+  <si>
+    <t>XM11TPro</t>
+  </si>
+  <si>
+    <t>xiaomi-11t-pro</t>
+  </si>
+  <si>
+    <t>ziyi</t>
+  </si>
+  <si>
+    <t>Xiaomi 13 Lite</t>
+  </si>
+  <si>
+    <t>ZIYIG</t>
+  </si>
+  <si>
+    <t>xiaomi-13-lite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +835,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +859,14 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -549,11 +1019,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -575,11 +1166,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -593,9 +1213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -633,7 +1253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -739,7 +1359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -881,7 +1501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -889,22 +1509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0BD3FF-EC0D-4AEE-82C8-F0AFD5C1EA65}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,480 +1541,1417 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E73" xr:uid="{9F0BD3FF-EC0D-4AEE-82C8-F0AFD5C1EA65}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7874674C-D4F0-4516-AD0D-CDEF1163E3C6}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/XiaomiEuRomChecker/core/hyperos_inital_list.xlsx
+++ b/XiaomiEuRomChecker/core/hyperos_inital_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\PycharmProjects\XiaomiEuRomChecker\XiaomiEuRomChecker\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\PycharmProjects\XiaomiEuRomChecker\XiaomiEuRomChecker\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2D8A6D-C578-4CA8-8EA5-5D8DE2AC7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAB504F-8523-4C9A-B053-F47D9BD48139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74CBE821-2FE9-41F0-990E-2B05DFB28BE7}"/>
+    <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13020" xr2:uid="{74CBE821-2FE9-41F0-990E-2B05DFB28BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>rom_name</t>
   </si>
   <si>
-    <t>rom_version</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Xiaomi 12</t>
   </si>
   <si>
-    <t>XM12</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>Xiaomi 12 Pro</t>
   </si>
   <si>
-    <t>XM12Pro</t>
-  </si>
-  <si>
     <t>xiaomi-12-pro</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
     <t>POCO F3</t>
   </si>
   <si>
-    <t>HMK40_POCOF3</t>
-  </si>
-  <si>
     <t>poco-f3</t>
   </si>
   <si>
@@ -402,9 +390,6 @@
     <t>Mi 10 Ultra</t>
   </si>
   <si>
-    <t>MI10Ultra</t>
-  </si>
-  <si>
     <t>mi-10-ultra</t>
   </si>
   <si>
@@ -414,9 +399,6 @@
     <t>Mi 10 Pro</t>
   </si>
   <si>
-    <t>MI10Pro</t>
-  </si>
-  <si>
     <t>mi-10-pro</t>
   </si>
   <si>
@@ -447,9 +429,6 @@
     <t>Redmi K40 Pro</t>
   </si>
   <si>
-    <t>HMK40Pro_MI11i</t>
-  </si>
-  <si>
     <t>redmi-k40-pro</t>
   </si>
   <si>
@@ -483,9 +462,6 @@
     <t>Mi 11 LE</t>
   </si>
   <si>
-    <t>MI11LE_XM11Lite5GNE</t>
-  </si>
-  <si>
     <t>mi-11-le</t>
   </si>
   <si>
@@ -519,9 +495,6 @@
     <t>Mi 11 Pro</t>
   </si>
   <si>
-    <t>MI11Pro_MI11Ultra</t>
-  </si>
-  <si>
     <t>mi-11-pro</t>
   </si>
   <si>
@@ -531,9 +504,6 @@
     <t>Xiaomi Civi</t>
   </si>
   <si>
-    <t>XMCivi</t>
-  </si>
-  <si>
     <t>xiaomi-civi</t>
   </si>
   <si>
@@ -543,9 +513,6 @@
     <t>POCO X5 5G</t>
   </si>
   <si>
-    <t>MOONSTONE</t>
-  </si>
-  <si>
     <t>poco-x5-5g</t>
   </si>
   <si>
@@ -573,9 +540,6 @@
     <t>Xiaomi MIX 4</t>
   </si>
   <si>
-    <t>MIX4</t>
-  </si>
-  <si>
     <t>xiaomi-mix-4</t>
   </si>
   <si>
@@ -624,9 +588,6 @@
     <t>Xiaomi 12X</t>
   </si>
   <si>
-    <t>XM12X</t>
-  </si>
-  <si>
     <t>xiaomi-12x</t>
   </si>
   <si>
@@ -660,9 +621,6 @@
     <t>Redmi Note 11 (Global 4G)</t>
   </si>
   <si>
-    <t>HMNote11</t>
-  </si>
-  <si>
     <t>redmi-note-11-global-4g</t>
   </si>
   <si>
@@ -726,9 +684,6 @@
     <t>Mi 10S</t>
   </si>
   <si>
-    <t>MI10S</t>
-  </si>
-  <si>
     <t>mi-10s</t>
   </si>
   <si>
@@ -738,9 +693,6 @@
     <t>Mi 10</t>
   </si>
   <si>
-    <t>MI10</t>
-  </si>
-  <si>
     <t>mi-10</t>
   </si>
   <si>
@@ -750,9 +702,6 @@
     <t>Mi 11</t>
   </si>
   <si>
-    <t>MI11</t>
-  </si>
-  <si>
     <t>mi-11</t>
   </si>
   <si>
@@ -795,9 +744,6 @@
     <t>Xiaomi 11T Pro</t>
   </si>
   <si>
-    <t>XM11TPro</t>
-  </si>
-  <si>
     <t>xiaomi-11t-pro</t>
   </si>
   <si>
@@ -811,6 +757,60 @@
   </si>
   <si>
     <t>xiaomi-13-lite</t>
+  </si>
+  <si>
+    <t>ALIOTH</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>CMI</t>
+  </si>
+  <si>
+    <t>CUPID</t>
+  </si>
+  <si>
+    <t>HAYDN</t>
+  </si>
+  <si>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>MONA</t>
+  </si>
+  <si>
+    <t>MOONSTONE_P</t>
+  </si>
+  <si>
+    <t>ODIN</t>
+  </si>
+  <si>
+    <t>PSYCHE</t>
+  </si>
+  <si>
+    <t>SPESN</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>THYME</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>VENUS</t>
+  </si>
+  <si>
+    <t>VILI</t>
+  </si>
+  <si>
+    <t>ZEUS</t>
+  </si>
+  <si>
+    <t>rom_options</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1181,9 +1181,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,20 +1508,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0BD3FF-EC0D-4AEE-82C8-F0AFD5C1EA65}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,1234 +1533,1234 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="E25" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="C26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="D26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="8" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="C27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="B30" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="C30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="B32" s="22" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="C32" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="B33" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="D33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="9" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="B36" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="C36" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="23" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="B37" s="28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="C37" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="D37" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="12" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="C38" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="39" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="B39" s="30" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="C39" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="C42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="D69" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="9" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="B70" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C70" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="7" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="B71" s="11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="C71" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B65" s="16" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="B73" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="16" t="s">
+      <c r="D73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2782,176 +2780,176 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
